--- a/metrics/llama31-8b_A100/llama31_8b_VLLM_A100.xlsx
+++ b/metrics/llama31-8b_A100/llama31_8b_VLLM_A100.xlsx
@@ -456,13 +456,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.00021858613491</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.241769666671753</v>
+        <v>3.017772197723389</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>72.76351158763831</v>
+        <v>45.74309356500796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6623808193206786</v>
+        <v>4.578631639480591</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>288.7683118453909</v>
+        <v>70.30789004121213</v>
       </c>
       <c r="C4" t="n">
-        <v>2.809676055908203</v>
+        <v>5.699276447296143</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>414.6782650130901</v>
+        <v>86.10781855071414</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.522879476547241</v>
+        <v>7.872086524963379</v>
       </c>
     </row>
     <row r="6">
@@ -503,10 +503,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>479.2157236727841</v>
+        <v>96.89743477646566</v>
       </c>
       <c r="C6" t="n">
-        <v>3.017606859207153</v>
+        <v>8.064618110656738</v>
       </c>
     </row>
     <row r="7">
@@ -514,10 +514,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>576.940195826994</v>
+        <v>909.5486649408258</v>
       </c>
       <c r="C7" t="n">
-        <v>3.242330675125122</v>
+        <v>8.402814865112305</v>
       </c>
     </row>
     <row r="8">
@@ -525,10 +525,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>734.6081842811992</v>
+        <v>813.1762211259401</v>
       </c>
       <c r="C8" t="n">
-        <v>3.424090747833252</v>
+        <v>8.645734786987305</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>903.5599816691413</v>
+        <v>735.3255793624091</v>
       </c>
       <c r="C9" t="n">
-        <v>3.632553939819336</v>
+        <v>12.25822067260742</v>
       </c>
     </row>
     <row r="10">
@@ -547,10 +547,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>939.6204351338639</v>
+        <v>692.2415335448101</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.329906101226807</v>
+        <v>12.82424807548523</v>
       </c>
     </row>
     <row r="11">
@@ -558,10 +558,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>956.9867378025036</v>
+        <v>642.9064398530336</v>
       </c>
       <c r="C11" t="n">
-        <v>3.86273754119873</v>
+        <v>14.29751896858215</v>
       </c>
     </row>
     <row r="12">
@@ -569,10 +569,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>982.0407639576063</v>
+        <v>614.9715978671875</v>
       </c>
       <c r="C12" t="n">
-        <v>4.059022312164307</v>
+        <v>14.41140675544739</v>
       </c>
     </row>
     <row r="13">
@@ -580,10 +580,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>1062.743041256348</v>
+        <v>919.5404469093238</v>
       </c>
       <c r="C13" t="n">
-        <v>4.425334815979004</v>
+        <v>16.28785586357117</v>
       </c>
     </row>
     <row r="14">
@@ -591,10 +591,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>1093.910074592194</v>
+        <v>874.3607539090793</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.761549348831177</v>
+        <v>16.7247941493988</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +602,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>1080.614175485954</v>
+        <v>836.1239325009861</v>
       </c>
       <c r="C15" t="n">
-        <v>5.022297029495239</v>
+        <v>19.89538216590881</v>
       </c>
     </row>
     <row r="16">
@@ -613,10 +613,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>1103.642215564885</v>
+        <v>813.5675689246845</v>
       </c>
       <c r="C16" t="n">
-        <v>5.092871789932251</v>
+        <v>13.87201285362244</v>
       </c>
     </row>
     <row r="17">
@@ -624,10 +624,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>1145.078640764053</v>
+        <v>798.7014773974037</v>
       </c>
       <c r="C17" t="n">
-        <v>3.238574867248535</v>
+        <v>22.88908696174622</v>
       </c>
     </row>
     <row r="18">
@@ -635,10 +635,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>1169.133409286435</v>
+        <v>939.0950418347932</v>
       </c>
       <c r="C18" t="n">
-        <v>1.60635006904602</v>
+        <v>23.26075887680054</v>
       </c>
     </row>
     <row r="19">
@@ -646,10 +646,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>1160.455282039442</v>
+        <v>924.4098338821814</v>
       </c>
       <c r="C19" t="n">
-        <v>3.063990716934204</v>
+        <v>9.273475646972656</v>
       </c>
     </row>
     <row r="20">
@@ -657,10 +657,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>1160.927358617141</v>
+        <v>898.3419952168675</v>
       </c>
       <c r="C20" t="n">
-        <v>5.379903202056885</v>
+        <v>27.34034633636475</v>
       </c>
     </row>
     <row r="21">
@@ -668,10 +668,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>1172.244451919902</v>
+        <v>874.133922923536</v>
       </c>
       <c r="C21" t="n">
-        <v>5.619301919937134</v>
+        <v>27.40357899665833</v>
       </c>
     </row>
     <row r="22">
@@ -679,10 +679,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>1215.339216354321</v>
+        <v>861.6337468890334</v>
       </c>
       <c r="C22" t="n">
-        <v>5.829609756469726</v>
+        <v>27.38080286979675</v>
       </c>
     </row>
     <row r="23">
@@ -690,10 +690,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>1200.632726969076</v>
+        <v>844.7844673611837</v>
       </c>
       <c r="C23" t="n">
-        <v>1.205430154800415</v>
+        <v>27.5377357006073</v>
       </c>
     </row>
     <row r="24">
@@ -701,10 +701,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>1186.973730165239</v>
+        <v>941.8356204809312</v>
       </c>
       <c r="C24" t="n">
-        <v>6.084917669296265</v>
+        <v>27.73462533950806</v>
       </c>
     </row>
     <row r="25">
@@ -712,10 +712,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>1200.839259137935</v>
+        <v>936.1768978330299</v>
       </c>
       <c r="C25" t="n">
-        <v>6.210066442489624</v>
+        <v>27.73462533950806</v>
       </c>
     </row>
     <row r="26">
@@ -723,10 +723,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>1241.246608480073</v>
+        <v>914.6224747275821</v>
       </c>
       <c r="C26" t="n">
-        <v>6.529760961532593</v>
+        <v>27.79712510108948</v>
       </c>
     </row>
     <row r="27">
@@ -734,10 +734,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>1236.822049727045</v>
+        <v>899.4037840185149</v>
       </c>
       <c r="C27" t="n">
-        <v>6.722458724975586</v>
+        <v>27.77836537361145</v>
       </c>
     </row>
     <row r="28">
@@ -745,10 +745,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>1229.059027393819</v>
+        <v>888.3035586952294</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7809563922882079</v>
+        <v>27.79712510108948</v>
       </c>
     </row>
     <row r="29">
@@ -756,10 +756,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>1227.172849135166</v>
+        <v>875.9784115948809</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.657506818771362</v>
+        <v>27.79712510108948</v>
       </c>
     </row>
     <row r="30">
@@ -767,10 +767,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>1242.410640582708</v>
+        <v>944.7037002339888</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.838379974365234</v>
+        <v>27.85961771011353</v>
       </c>
     </row>
     <row r="31">
@@ -778,10 +778,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>1260.10652861174</v>
+        <v>939.2500896021479</v>
       </c>
       <c r="C31" t="n">
-        <v>7.1024280834198</v>
+        <v>27.85961771011353</v>
       </c>
     </row>
     <row r="32">
@@ -789,10 +789,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>1257.124052451085</v>
+        <v>926.3322892783036</v>
       </c>
       <c r="C32" t="n">
-        <v>4.207423810958862</v>
+        <v>27.85961771011353</v>
       </c>
     </row>
     <row r="33">
@@ -800,10 +800,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>1243.89500274623</v>
+        <v>914.516630389646</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.137975091934204</v>
+        <v>27.84289503097534</v>
       </c>
     </row>
     <row r="34">
@@ -811,10 +811,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>1252.488138300058</v>
+        <v>905.9809364641027</v>
       </c>
       <c r="C34" t="n">
-        <v>7.5518590259552</v>
+        <v>27.83683180809021</v>
       </c>
     </row>
     <row r="35">
@@ -822,10 +822,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>1277.484830700587</v>
+        <v>890.2429076541523</v>
       </c>
       <c r="C35" t="n">
-        <v>7.7572132396698</v>
+        <v>27.85961771011353</v>
       </c>
     </row>
     <row r="36">
@@ -833,10 +833,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>1272.73228657711</v>
+        <v>947.4519438736151</v>
       </c>
       <c r="C36" t="n">
-        <v>8.083680038452147</v>
+        <v>27.85961771011353</v>
       </c>
     </row>
     <row r="37">
@@ -844,10 +844,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>1266.404288046721</v>
+        <v>942.5077531728175</v>
       </c>
       <c r="C37" t="n">
-        <v>8.348730926513671</v>
+        <v>27.85961771011353</v>
       </c>
     </row>
     <row r="38">
@@ -855,10 +855,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>1271.823943087535</v>
+        <v>932.6077407968131</v>
       </c>
       <c r="C38" t="n">
-        <v>8.514462356567382</v>
+        <v>27.93774604797363</v>
       </c>
     </row>
     <row r="39">
@@ -866,10 +866,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>1285.337530040926</v>
+        <v>929.5915630671759</v>
       </c>
       <c r="C39" t="n">
-        <v>8.856258039474486</v>
+        <v>27.91798806190491</v>
       </c>
     </row>
     <row r="40">
@@ -877,10 +877,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>1290.18354607036</v>
+        <v>923.883175159191</v>
       </c>
       <c r="C40" t="n">
-        <v>9.005029325485228</v>
+        <v>27.93774604797363</v>
       </c>
     </row>
     <row r="41">
@@ -888,10 +888,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>1291.726299163839</v>
+        <v>914.0027723913626</v>
       </c>
       <c r="C41" t="n">
-        <v>9.168889169692992</v>
+        <v>27.93774604797363</v>
       </c>
     </row>
     <row r="42">
@@ -899,10 +899,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>1299.190106734462</v>
+        <v>945.8710429386398</v>
       </c>
       <c r="C42" t="n">
-        <v>3.593009595870972</v>
+        <v>27.98148679733276</v>
       </c>
     </row>
     <row r="43">
@@ -910,10 +910,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>1305.537192935801</v>
+        <v>950.0572391152224</v>
       </c>
       <c r="C43" t="n">
-        <v>5.480897789001465</v>
+        <v>28.04657030105591</v>
       </c>
     </row>
     <row r="44">
@@ -921,10 +921,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>1305.816955520952</v>
+        <v>944.9749374831323</v>
       </c>
       <c r="C44" t="n">
-        <v>9.509924058914184</v>
+        <v>28.06160855293274</v>
       </c>
     </row>
     <row r="45">
@@ -932,10 +932,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>1295.448870581569</v>
+        <v>937.2789381107139</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.415849084854126</v>
+        <v>28.04447674751282</v>
       </c>
     </row>
     <row r="46">
@@ -943,10 +943,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>1288.114028875374</v>
+        <v>934.399527797358</v>
       </c>
       <c r="C46" t="n">
-        <v>9.648925189971923</v>
+        <v>28.09391927719116</v>
       </c>
     </row>
     <row r="47">
@@ -954,10 +954,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>1292.181613929011</v>
+        <v>931.7647735855174</v>
       </c>
       <c r="C47" t="n">
-        <v>9.812213783264159</v>
+        <v>28.09391927719116</v>
       </c>
     </row>
     <row r="48">
@@ -965,10 +965,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>1302.796421054063</v>
+        <v>953.8566625798417</v>
       </c>
       <c r="C48" t="n">
-        <v>9.827001695632934</v>
+        <v>28.07416129112244</v>
       </c>
     </row>
     <row r="49">
@@ -976,10 +976,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>1298.6462850598</v>
+        <v>950.0512902687753</v>
       </c>
       <c r="C49" t="n">
-        <v>9.968999986648559</v>
+        <v>28.09391927719116</v>
       </c>
     </row>
     <row r="50">
@@ -987,10 +987,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>1293.951742530294</v>
+        <v>948.1092902697114</v>
       </c>
       <c r="C50" t="n">
-        <v>10.24857104301453</v>
+        <v>28.17208218574524</v>
       </c>
     </row>
     <row r="51">
@@ -998,10 +998,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>1299.063102187419</v>
+        <v>948.5164200936337</v>
       </c>
       <c r="C51" t="n">
-        <v>4.464248065948486</v>
+        <v>28.15132427215576</v>
       </c>
     </row>
     <row r="52">
@@ -1009,10 +1009,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>1307.627031813121</v>
+        <v>951.4159073767565</v>
       </c>
       <c r="C52" t="n">
-        <v>10.66860354423523</v>
+        <v>28.15650701522827</v>
       </c>
     </row>
     <row r="53">
@@ -1020,10 +1020,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>1313.58695348115</v>
+        <v>947.1664800376312</v>
       </c>
       <c r="C53" t="n">
-        <v>10.78850138664246</v>
+        <v>28.17208218574524</v>
       </c>
     </row>
     <row r="54">
@@ -1031,10 +1031,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>1314.451207709435</v>
+        <v>958.9968235941136</v>
       </c>
       <c r="C54" t="n">
-        <v>7.638096218109131</v>
+        <v>28.17208218574524</v>
       </c>
     </row>
     <row r="55">
@@ -1042,10 +1042,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>1313.882659362894</v>
+        <v>960.3864011539472</v>
       </c>
       <c r="C55" t="n">
-        <v>10.98201168060303</v>
+        <v>28.17208218574524</v>
       </c>
     </row>
     <row r="56">
@@ -1053,10 +1053,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>1316.569152729056</v>
+        <v>954.4487422525214</v>
       </c>
       <c r="C56" t="n">
-        <v>11.03301156044006</v>
+        <v>28.23462080955505</v>
       </c>
     </row>
     <row r="57">
@@ -1064,10 +1064,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>1328.84772363032</v>
+        <v>954.9289544362406</v>
       </c>
       <c r="C57" t="n">
-        <v>11.1553221988678</v>
+        <v>28.30659937858582</v>
       </c>
     </row>
     <row r="58">
@@ -1075,10 +1075,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>1326.129261876106</v>
+        <v>959.0370750793481</v>
       </c>
       <c r="C58" t="n">
-        <v>11.28235567092895</v>
+        <v>28.35811758041382</v>
       </c>
     </row>
     <row r="59">
@@ -1086,10 +1086,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>1324.983838852595</v>
+        <v>953.5558538864577</v>
       </c>
       <c r="C59" t="n">
-        <v>11.38177717208862</v>
+        <v>28.37529897689819</v>
       </c>
     </row>
     <row r="60">
@@ -1097,10 +1097,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>1325.515295209449</v>
+        <v>968.3587448948845</v>
       </c>
       <c r="C60" t="n">
-        <v>11.3879493522644</v>
+        <v>28.37310314178467</v>
       </c>
     </row>
     <row r="61">
@@ -1108,10 +1108,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>1336.161454594897</v>
+        <v>966.4964126287987</v>
       </c>
       <c r="C61" t="n">
-        <v>11.47295010566711</v>
+        <v>28.39087414741516</v>
       </c>
     </row>
   </sheetData>
@@ -1155,21 +1155,21 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>7.39409044504407</v>
+        <v>0.1999460651926615</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.500160093307495</v>
+        <v>1.792637825012207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>116.2084360466258</v>
+        <v>6.40219450832477</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.245314950942993</v>
+        <v>8.151471853256226</v>
       </c>
     </row>
     <row r="4">
@@ -1177,43 +1177,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>231.7530601314841</v>
+        <v>18.2612406471148</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.213490600585938</v>
+        <v>12.05440020561218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>354.5059035104576</v>
+        <v>18.45569713446256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6207183647155761</v>
+        <v>14.55522704124451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>445.3800083529609</v>
+        <v>19.24339694287694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7741626548767089</v>
+        <v>16.16826701164246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>557.0919562683031</v>
+        <v>357.3334440867449</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.238216991424561</v>
+        <v>9.839767932891846</v>
       </c>
     </row>
     <row r="8">
@@ -1221,43 +1221,43 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>660.8837310024088</v>
+        <v>400.0775601519178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9316347885131835</v>
+        <v>28.9514946937561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>681.7437876045683</v>
+        <v>371.5505640654489</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.666908140182495</v>
+        <v>29.53495860099792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>748.767558907442</v>
+        <v>349.6785774420334</v>
       </c>
       <c r="C10" t="n">
-        <v>1.235632543563843</v>
+        <v>29.57129406929016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>779.5237722777873</v>
+        <v>544.7700238224761</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.05135929107666</v>
+        <v>29.5742039680481</v>
       </c>
     </row>
     <row r="12">
@@ -1265,32 +1265,32 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>798.3091354443968</v>
+        <v>514.1878213695402</v>
       </c>
       <c r="C12" t="n">
-        <v>1.426414852142334</v>
+        <v>29.57227969169617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>814.1695446398573</v>
+        <v>477.4963364992677</v>
       </c>
       <c r="C13" t="n">
-        <v>1.666480188369751</v>
+        <v>29.57780194282532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>835.2060081676276</v>
+        <v>473.4658693930672</v>
       </c>
       <c r="C14" t="n">
-        <v>1.981606369018555</v>
+        <v>29.57680225372314</v>
       </c>
     </row>
     <row r="15">
@@ -1298,10 +1298,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>848.7352224522555</v>
+        <v>595.2153711250792</v>
       </c>
       <c r="C15" t="n">
-        <v>2.1640096950531</v>
+        <v>29.60392999649048</v>
       </c>
     </row>
     <row r="16">
@@ -1309,21 +1309,21 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>862.1321134197866</v>
+        <v>570.8541550926309</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.385561103820801</v>
+        <v>29.6079740524292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>862.7207766611507</v>
+        <v>546.7802931466052</v>
       </c>
       <c r="C17" t="n">
-        <v>2.141570453643799</v>
+        <v>29.61097431182861</v>
       </c>
     </row>
     <row r="18">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>869.5619849409576</v>
+        <v>542.2340685979622</v>
       </c>
       <c r="C18" t="n">
-        <v>2.338659410476684</v>
+        <v>29.61497378349304</v>
       </c>
     </row>
     <row r="19">
@@ -1342,10 +1342,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>887.378541331403</v>
+        <v>620.1662470405752</v>
       </c>
       <c r="C19" t="n">
-        <v>2.58850396156311</v>
+        <v>29.61097407341003</v>
       </c>
     </row>
     <row r="20">
@@ -1353,21 +1353,21 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>896.3102678760827</v>
+        <v>601.07816895418</v>
       </c>
       <c r="C20" t="n">
-        <v>2.738727693557739</v>
+        <v>29.61697387695312</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>890.2405364290939</v>
+        <v>598.8585898276318</v>
       </c>
       <c r="C21" t="n">
-        <v>2.889729623794556</v>
+        <v>29.61397290229797</v>
       </c>
     </row>
     <row r="22">
@@ -1375,65 +1375,65 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>907.672737690874</v>
+        <v>594.0832959504617</v>
       </c>
       <c r="C22" t="n">
-        <v>3.042935256958008</v>
+        <v>29.61797308921814</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>910.7731688737615</v>
+        <v>644.3765788599792</v>
       </c>
       <c r="C23" t="n">
-        <v>3.27849042892456</v>
+        <v>0.0720970630645752</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>916.4560360633224</v>
+        <v>625.5771791589226</v>
       </c>
       <c r="C24" t="n">
-        <v>3.42947018623352</v>
+        <v>29.65189838409424</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>932.2756635913088</v>
+        <v>634.7208468642225</v>
       </c>
       <c r="C25" t="n">
-        <v>3.647235279083252</v>
+        <v>29.68289756774902</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>932.6946027346195</v>
+        <v>684.6721854264719</v>
       </c>
       <c r="C26" t="n">
-        <v>3.835633640289307</v>
+        <v>29.68289756774902</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>942.0655044559288</v>
+        <v>677.2581883991451</v>
       </c>
       <c r="C27" t="n">
-        <v>3.945090656280517</v>
+        <v>29.68189764022827</v>
       </c>
     </row>
     <row r="28">
@@ -1441,21 +1441,21 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>946.9645749885981</v>
+        <v>672.3185465004418</v>
       </c>
       <c r="C28" t="n">
-        <v>3.913911228179932</v>
+        <v>29.67686128616333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>938.9404332509257</v>
+        <v>674.0142990811777</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.275062198638916</v>
+        <v>29.68189764022827</v>
       </c>
     </row>
     <row r="30">
@@ -1463,10 +1463,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>955.9010222885327</v>
+        <v>698.1049573125449</v>
       </c>
       <c r="C30" t="n">
-        <v>4.083507661819458</v>
+        <v>29.71367526054382</v>
       </c>
     </row>
     <row r="31">
@@ -1474,65 +1474,65 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>952.4032923007794</v>
+        <v>693.8750841710822</v>
       </c>
       <c r="C31" t="n">
-        <v>4.158565645217895</v>
+        <v>29.71268367767334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>951.8888706974857</v>
+        <v>696.5821148838725</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.352815265655518</v>
+        <v>29.71467566490173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>965.7895387518072</v>
+        <v>718.5680141937246</v>
       </c>
       <c r="C33" t="n">
-        <v>4.455731754302978</v>
+        <v>29.7187283039093</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>960.9549303387887</v>
+        <v>712.9591851289224</v>
       </c>
       <c r="C34" t="n">
-        <v>4.550575141906738</v>
+        <v>29.72372841835022</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>964.9644316715282</v>
+        <v>702.0180505368631</v>
       </c>
       <c r="C35" t="n">
-        <v>4.607279901504516</v>
+        <v>21.59491109848022</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>973.6206590029027</v>
+        <v>706.247356314232</v>
       </c>
       <c r="C36" t="n">
-        <v>4.676718835830688</v>
+        <v>29.77284240722656</v>
       </c>
     </row>
     <row r="37">
@@ -1540,10 +1540,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>970.1316328883541</v>
+        <v>716.9678757480601</v>
       </c>
       <c r="C37" t="n">
-        <v>5.023329381942749</v>
+        <v>29.79503154754639</v>
       </c>
     </row>
     <row r="38">
@@ -1551,21 +1551,21 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>972.8085705551904</v>
+        <v>716.9573197266436</v>
       </c>
       <c r="C38" t="n">
-        <v>5.163566474914551</v>
+        <v>29.86390662193298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>978.0817537627258</v>
+        <v>715.3573402665527</v>
       </c>
       <c r="C39" t="n">
-        <v>5.162680034637451</v>
+        <v>29.86285805702209</v>
       </c>
     </row>
     <row r="40">
@@ -1573,43 +1573,43 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>972.001431659078</v>
+        <v>716.4984790624663</v>
       </c>
       <c r="C40" t="n">
-        <v>5.171701316833496</v>
+        <v>29.97286820411682</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>972.5930453547765</v>
+        <v>727.1419068273468</v>
       </c>
       <c r="C41" t="n">
-        <v>5.280077104568481</v>
+        <v>29.97387647628784</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>972.8300513503623</v>
+        <v>722.84830689719</v>
       </c>
       <c r="C42" t="n">
-        <v>5.32675087928772</v>
+        <v>29.97688436508179</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>965.573613172439</v>
+        <v>729.5839372239809</v>
       </c>
       <c r="C43" t="n">
-        <v>5.429264192581177</v>
+        <v>29.97486925125122</v>
       </c>
     </row>
     <row r="44">
@@ -1617,10 +1617,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>969.909187584034</v>
+        <v>732.6400446575743</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.660273904800415</v>
+        <v>29.97788405418396</v>
       </c>
     </row>
     <row r="45">
@@ -1628,21 +1628,21 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>976.0224277995695</v>
+        <v>734.4962909691155</v>
       </c>
       <c r="C45" t="n">
-        <v>5.442567472457886</v>
+        <v>29.97888374328613</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="n">
-        <v>976.4211942506481</v>
+        <v>729.7570853536752</v>
       </c>
       <c r="C46" t="n">
-        <v>5.661310796737671</v>
+        <v>30.03402423858643</v>
       </c>
     </row>
     <row r="47">
@@ -1650,54 +1650,54 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>975.1510665057589</v>
+        <v>733.4753041243554</v>
       </c>
       <c r="C47" t="n">
-        <v>5.782554750442505</v>
+        <v>30.03299069404602</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="n">
-        <v>977.3404443978342</v>
+        <v>741.7914193475762</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.626977558135986</v>
+        <v>30.04003477096558</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" t="n">
-        <v>984.8489777714245</v>
+        <v>738.5934242758791</v>
       </c>
       <c r="C49" t="n">
-        <v>5.930938844680786</v>
+        <v>30.03497838973999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="n">
-        <v>982.0174046617173</v>
+        <v>738.7236511102361</v>
       </c>
       <c r="C50" t="n">
-        <v>5.901070957183838</v>
+        <v>30.08711004257202</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" t="n">
-        <v>980.5244736606708</v>
+        <v>744.4529325734006</v>
       </c>
       <c r="C51" t="n">
-        <v>6.056153182983398</v>
+        <v>30.09312558174133</v>
       </c>
     </row>
     <row r="52">
@@ -1705,21 +1705,21 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>984.0451785054739</v>
+        <v>746.3056319130419</v>
       </c>
       <c r="C52" t="n">
-        <v>6.096774940490723</v>
+        <v>30.0921106338501</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="n">
-        <v>987.1187329022107</v>
+        <v>744.6651136448434</v>
       </c>
       <c r="C53" t="n">
-        <v>6.14786994934082</v>
+        <v>30.09111142158508</v>
       </c>
     </row>
     <row r="54">
@@ -1727,10 +1727,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>982.9870560675354</v>
+        <v>752.1315944987327</v>
       </c>
       <c r="C54" t="n">
-        <v>6.076426153182983</v>
+        <v>30.14085340499878</v>
       </c>
     </row>
     <row r="55">
@@ -1738,32 +1738,32 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>985.909876557022</v>
+        <v>756.11804046232</v>
       </c>
       <c r="C55" t="n">
-        <v>6.121668462753296</v>
+        <v>28.60640597343445</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="n">
-        <v>986.1763088899002</v>
+        <v>755.5713438315231</v>
       </c>
       <c r="C56" t="n">
-        <v>6.232221727371216</v>
+        <v>4.829142570495605</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="n">
-        <v>990.2178920596556</v>
+        <v>755.5645948892854</v>
       </c>
       <c r="C57" t="n">
-        <v>6.176391248703003</v>
+        <v>5.548810720443726</v>
       </c>
     </row>
     <row r="58">
@@ -1771,10 +1771,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>990.8326936325794</v>
+        <v>754.5080555308133</v>
       </c>
       <c r="C58" t="n">
-        <v>6.216560487747192</v>
+        <v>23.36915993690491</v>
       </c>
     </row>
     <row r="59">
@@ -1782,10 +1782,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>990.7182089893645</v>
+        <v>756.5413526440334</v>
       </c>
       <c r="C59" t="n">
-        <v>6.294194822311401</v>
+        <v>21.70974516868591</v>
       </c>
     </row>
     <row r="60">
@@ -1793,10 +1793,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>993.6904211956989</v>
+        <v>758.5904138766521</v>
       </c>
       <c r="C60" t="n">
-        <v>6.542821531295776</v>
+        <v>11.04595184326172</v>
       </c>
     </row>
     <row r="61">
@@ -1804,10 +1804,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>994.4997763083094</v>
+        <v>759.7631508312467</v>
       </c>
       <c r="C61" t="n">
-        <v>6.496224527359009</v>
+        <v>13.70771980285645</v>
       </c>
     </row>
   </sheetData>
@@ -1848,662 +1848,662 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.2005867766176194</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9873952102661132</v>
+        <v>0.4826643466949463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>75.19709371855994</v>
+        <v>0.100077176004836</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3846744728088378</v>
+        <v>12.78780221939087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>74.23949564325409</v>
+        <v>210.2763637917823</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2059041690826415</v>
+        <v>13.95536875724792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>118.8539054867919</v>
+        <v>157.7128474362385</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.940903587341309</v>
+        <v>13.96851897239685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>177.0955984400752</v>
+        <v>236.2783018410202</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04637948989868157</v>
+        <v>13.98030877113342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>191.371028709322</v>
+        <v>196.8147201484944</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07176773071289055</v>
+        <v>13.98130464553833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>224.8116789260133</v>
+        <v>231.9328983207538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0941339302062989</v>
+        <v>13.98629546165466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>246.3286826897966</v>
+        <v>202.9061726725139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1435769367218018</v>
+        <v>13.9823112487793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>264.2900554061121</v>
+        <v>252.2804718113232</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2677577304840089</v>
+        <v>14.00969958305359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>275.477113479101</v>
+        <v>236.4244715976952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4010990428924561</v>
+        <v>14.00970339775085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>281.8266529144088</v>
+        <v>259.3319386245524</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.987325353622436</v>
+        <v>13.73513627052307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>278.117064874571</v>
+        <v>273.1676859679853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3967848587036134</v>
+        <v>9.469374418258667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>284.7252360273644</v>
+        <v>261.3267500160064</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3991032409667969</v>
+        <v>8.933684825897217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>291.0369404205087</v>
+        <v>275.5393647549641</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.071001453399658</v>
+        <v>9.242032051086426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>302.6181081393841</v>
+        <v>270.0949904589719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5028649139404298</v>
+        <v>9.259983062744141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>297.9738977695647</v>
+        <v>277.4591632112811</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4466775226593018</v>
+        <v>9.246243953704834</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>308.8427019628569</v>
+        <v>268.873111483185</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6262059974670411</v>
+        <v>9.248244762420654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>310.1429167480523</v>
+        <v>274.560146500388</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6921861934661866</v>
+        <v>9.267246961593628</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
-        <v>315.9127774432193</v>
+        <v>274.8413077038074</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.398304386138916</v>
+        <v>9.284256219863892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>306.5677873180563</v>
+        <v>279.5581948527242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8257756996154786</v>
+        <v>9.259846448898315</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>312.8212177971061</v>
+        <v>276.8957207262682</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.73484317779541</v>
+        <v>9.260844945907593</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>313.4939083473016</v>
+        <v>284.9870901905727</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7379687595367432</v>
+        <v>0.406078577041626</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>320.8731722406069</v>
+        <v>296.4302404534592</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7634225654602051</v>
+        <v>8.950895071029663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>321.5587813602655</v>
+        <v>289.6693449967968</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7875762748718262</v>
+        <v>8.953077793121338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>324.8150264690835</v>
+        <v>301.1938290376361</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8029228019714356</v>
+        <v>8.96060848236084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>325.6556285409326</v>
+        <v>296.4897209419593</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8203757572174073</v>
+        <v>8.96161675453186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
-        <v>320.6474931493676</v>
+        <v>296.0426292771487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8519600200653077</v>
+        <v>8.963618516921997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>327.6208976612589</v>
+        <v>297.6214114656173</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7194751071929932</v>
+        <v>8.930919170379639</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>328.0306454052629</v>
+        <v>298.157645873702</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7017658519744874</v>
+        <v>8.954842090606689</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="n">
-        <v>336.1928459520439</v>
+        <v>299.9990533990474</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.055368824005127</v>
+        <v>8.956879615783691</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>332.5031753792043</v>
+        <v>303.1015982844315</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6005364227294923</v>
+        <v>8.956884384155273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>338.3263993038868</v>
+        <v>307.7637263181131</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.498258991241455</v>
+        <v>8.963613748550415</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>339.2331025266103</v>
+        <v>306.6308453475413</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5575793552398682</v>
+        <v>9.208981990814209</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>338.9552815058799</v>
+        <v>309.3773101653704</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5584600734710694</v>
+        <v>8.723747730255127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>340.9840884089271</v>
+        <v>310.3361542009565</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5346513557434083</v>
+        <v>9.15329384803772</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>341.3564325067071</v>
+        <v>310.8433181535236</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4986546802520753</v>
+        <v>9.171090126037598</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
-        <v>340.9017633836366</v>
+        <v>308.879823518295</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4579754638671876</v>
+        <v>9.157060384750366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>339.1127863880189</v>
+        <v>308.1629477891434</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4543157386779786</v>
+        <v>9.161109924316406</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>342.8307277936415</v>
+        <v>305.8548594069041</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4335313606262208</v>
+        <v>9.192142009735107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>342.7503721689624</v>
+        <v>304.2977327665918</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.186165494918823</v>
+        <v>9.210462808609009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>342.1805029853544</v>
+        <v>307.3815110083547</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4571672248840333</v>
+        <v>9.176192998886108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>338.7300027600306</v>
+        <v>305.239592981917</v>
       </c>
       <c r="C43" t="n">
-        <v>0.450887041091919</v>
+        <v>9.150961637496948</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44" t="n">
-        <v>342.4166907036061</v>
+        <v>305.0409898080733</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5837097930908204</v>
+        <v>6.539060592651367</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="n">
-        <v>340.4848449655497</v>
+        <v>303.5207398042745</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5819347667694093</v>
+        <v>9.021914958953857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="n">
-        <v>342.7867715355578</v>
+        <v>304.4979834830866</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5802903938293458</v>
+        <v>9.008720874786377</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="n">
-        <v>341.2696248686578</v>
+        <v>305.866643043451</v>
       </c>
       <c r="C47" t="n">
-        <v>-6.657916469573975</v>
+        <v>8.997139453887939</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="n">
-        <v>336.5612614480139</v>
+        <v>307.7143906655459</v>
       </c>
       <c r="C48" t="n">
-        <v>0.575093584060669</v>
+        <v>9.003764629364014</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" t="n">
-        <v>337.4142633090934</v>
+        <v>306.4260850740718</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6080241966247559</v>
+        <v>9.018472909927368</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="n">
-        <v>336.9402516472574</v>
+        <v>308.3460283316892</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6083927917480469</v>
+        <v>9.020480632781982</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" t="n">
-        <v>336.3019603762688</v>
+        <v>308.4020910230816</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5885203647613526</v>
+        <v>9.019837617874146</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="n">
-        <v>337.433761770189</v>
+        <v>305.830313424677</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5661311912536622</v>
+        <v>9.020730257034302</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="n">
-        <v>338.5283942292968</v>
+        <v>307.6511887627256</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5650358963012696</v>
+        <v>9.072246789932251</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" t="n">
-        <v>338.3359794549527</v>
+        <v>308.8713496921648</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5724731254577637</v>
+        <v>1.136061906814575</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" t="n">
-        <v>337.0299577260795</v>
+        <v>308.1458818473565</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4297314453125001</v>
+        <v>5.873162508010864</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="n">
-        <v>341.0210190453781</v>
+        <v>305.6445813062641</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4355743694305421</v>
+        <v>9.270290851593018</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="n">
-        <v>340.0862240004468</v>
+        <v>307.264407897403</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4469228553771973</v>
+        <v>2.569866895675659</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="n">
-        <v>338.8900459729548</v>
+        <v>308.8341898829943</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4432771968841553</v>
+        <v>9.205984592437744</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" t="n">
-        <v>340.0586681868891</v>
+        <v>308.1979280510837</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4171324539184571</v>
+        <v>9.183566570281982</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" t="n">
-        <v>339.4729909193951</v>
+        <v>309.1109623690043</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4337037372589112</v>
+        <v>9.183829545974731</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B61" t="n">
-        <v>342.3307842940361</v>
+        <v>306.645471794429</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4229512977600098</v>
+        <v>9.195540189743042</v>
       </c>
     </row>
   </sheetData>
@@ -2544,629 +2544,629 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06750882148742665</v>
+        <v>8.881324529647827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>29.20752178886878</v>
+        <v>137.6174716242886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2288256931304931</v>
+        <v>8.88334321975708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>53.43128792549567</v>
+        <v>102.0592374352363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2564672279357909</v>
+        <v>8.902522802352905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>87.86023411143974</v>
+        <v>139.3886286577624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3966835784912108</v>
+        <v>8.922424793243408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>101.3713005998388</v>
+        <v>163.0170786901639</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.744136447906494</v>
+        <v>8.934836387634277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>110.4382295772968</v>
+        <v>143.7753049000505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3675218868255614</v>
+        <v>3.984806537628174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>135.9547238424967</v>
+        <v>169.2393318331865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4617096233367919</v>
+        <v>7.965242147445679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>132.4692251664059</v>
+        <v>148.0595363339759</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4008916664123534</v>
+        <v>7.967261791229248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>145.6419299462145</v>
+        <v>167.7674144073635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3901270675659179</v>
+        <v>7.931249618530273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>158.7765322739845</v>
+        <v>173.5504674993037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.418468837738037</v>
+        <v>7.966901540756226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>147.519444964268</v>
+        <v>157.7364906208301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4094723510742186</v>
+        <v>4.555712938308716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>158.7319048197428</v>
+        <v>171.6204441441275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4413255500793456</v>
+        <v>8.051653623580933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>171.9472171833784</v>
+        <v>170.098184816593</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4338382530212401</v>
+        <v>8.068458557128906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>161.7105087967479</v>
+        <v>167.8327666896392</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4442306804656981</v>
+        <v>8.047712087631226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>167.415222017967</v>
+        <v>166.2660113055368</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.65329873085022</v>
+        <v>8.0526123046875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>176.8776292564284</v>
+        <v>162.889818506757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.483982925415039</v>
+        <v>8.019556522369385</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>170.1529498414826</v>
+        <v>168.8130375642673</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5235654163360595</v>
+        <v>7.924387693405151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>174.4608428312758</v>
+        <v>171.7127811911882</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.764562482833862</v>
+        <v>7.926390647888184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
-        <v>182.7569882607447</v>
+        <v>169.5412105149275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4535845565795897</v>
+        <v>7.941253662109375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>177.7639293030265</v>
+        <v>170.7061370798135</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4511219310760497</v>
+        <v>7.941253662109375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>181.2402560312353</v>
+        <v>169.5114499567905</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.678385848999024</v>
+        <v>7.96650505065918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>182.5170347807347</v>
+        <v>171.4183172539341</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4801160144805907</v>
+        <v>7.820583343505859</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>182.9239584687583</v>
+        <v>177.7968548671901</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4525183486938475</v>
+        <v>7.820582628250122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>184.6118939707369</v>
+        <v>176.6112233043415</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4631079483032225</v>
+        <v>7.817834854125977</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>186.9585191676191</v>
+        <v>179.1971555822273</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4416507530212401</v>
+        <v>7.817834854125977</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>184.8736486932962</v>
+        <v>178.1608058217195</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.865670795440674</v>
+        <v>0.2429900169372559</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
-        <v>183.7117089055746</v>
+        <v>176.8308287458233</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4135166454315184</v>
+        <v>7.8337562084198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>185.6886077625254</v>
+        <v>177.1020189353895</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4100505161285399</v>
+        <v>7.948211669921875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>185.6700229769994</v>
+        <v>177.3844186038106</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4742897796630858</v>
+        <v>7.930540561676025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="n">
-        <v>186.2801655906576</v>
+        <v>178.0659074855211</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6360021877288817</v>
+        <v>7.941251039505005</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>188.1915332014673</v>
+        <v>179.1321028557965</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7362409877777099</v>
+        <v>8.182159662246704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>186.378743753888</v>
+        <v>179.2108698786034</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7528671073913573</v>
+        <v>8.185370683670044</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>188.3479790823962</v>
+        <v>178.5262150377312</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8136636066436767</v>
+        <v>8.241002559661865</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>187.6609218524529</v>
+        <v>179.4168320808198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7154747295379638</v>
+        <v>8.238415002822876</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>188.3364380484154</v>
+        <v>178.7362618707697</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5854741382598876</v>
+        <v>8.2611985206604</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>190.678478118476</v>
+        <v>179.7235459049934</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4943043041229247</v>
+        <v>7.990662097930908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
-        <v>187.7820816035885</v>
+        <v>180.8965237232586</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4833658981323241</v>
+        <v>7.99808931350708</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>186.2207539306958</v>
+        <v>182.1250518876288</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4746631431579589</v>
+        <v>3.963140964508057</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>191.1050641373856</v>
+        <v>180.8628845023839</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4874333190917968</v>
+        <v>7.89229941368103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>190.0121191572817</v>
+        <v>179.2736392389892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4616636085510253</v>
+        <v>7.893298149108887</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>189.1080447234237</v>
+        <v>180.6957833196316</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48917329788208</v>
+        <v>7.884916305541992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>188.5424388745788</v>
+        <v>179.0724233461192</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5081261444091796</v>
+        <v>7.926970720291138</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44" t="n">
-        <v>188.6087552613458</v>
+        <v>178.3903675450189</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4938057708740233</v>
+        <v>2.804114818572998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="n">
-        <v>187.4212820104863</v>
+        <v>178.2626317202369</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5088928985595702</v>
+        <v>7.887040138244629</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="n">
-        <v>189.2165171828798</v>
+        <v>177.5793515697069</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7048178958892821</v>
+        <v>0.6786861419677734</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="n">
-        <v>188.0900772425397</v>
+        <v>180.16958734678</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7016204643249511</v>
+        <v>7.91300106048584</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="n">
-        <v>185.4373086041743</v>
+        <v>178.8981460058307</v>
       </c>
       <c r="C48" t="n">
-        <v>0.705688600540161</v>
+        <v>7.904261589050293</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" t="n">
-        <v>188.5025802599348</v>
+        <v>179.6368097789002</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7203522968292235</v>
+        <v>7.89548659324646</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="n">
-        <v>189.3147194025452</v>
+        <v>183.0631601172894</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7138847160339354</v>
+        <v>0.422950267791748</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" t="n">
-        <v>189.2116839769101</v>
+        <v>182.0383947120825</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5699688243865966</v>
+        <v>7.959336042404175</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="n">
-        <v>190.4232042865679</v>
+        <v>182.9630286973472</v>
       </c>
       <c r="C52" t="n">
-        <v>0.602311496734619</v>
+        <v>2.69745922088623</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="n">
-        <v>189.4900024732921</v>
+        <v>183.0309049327772</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4141627597808837</v>
+        <v>7.991777181625366</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" t="n">
-        <v>191.5482454235324</v>
+        <v>182.9990473036549</v>
       </c>
       <c r="C54" t="n">
-        <v>0.56296480178833</v>
+        <v>8.035994052886963</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" t="n">
-        <v>190.5727646465641</v>
+        <v>185.2602761290939</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5837436962127684</v>
+        <v>8.031617403030396</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="n">
-        <v>189.8537172957027</v>
+        <v>183.3000975074229</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5149599361419677</v>
+        <v>8.065403461456299</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="n">
-        <v>192.1815586611871</v>
+        <v>183.5055139610676</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5217150497436522</v>
+        <v>8.079565048217773</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="n">
-        <v>190.5446525373137</v>
+        <v>183.4504285011339</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5222781944274901</v>
+        <v>8.15034008026123</v>
       </c>
     </row>
     <row r="59">
@@ -3174,10 +3174,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>190.1757788986838</v>
+        <v>182.5624801938376</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5382396030426024</v>
+        <v>8.028887271881104</v>
       </c>
     </row>
     <row r="60">
@@ -3185,10 +3185,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>191.5846227544629</v>
+        <v>185.791172635018</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5313936519622802</v>
+        <v>8.026191234588623</v>
       </c>
     </row>
     <row r="61">
@@ -3196,10 +3196,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>191.0444771766178</v>
+        <v>183.9755554127329</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.020882005691528</v>
+        <v>8.275030612945557</v>
       </c>
     </row>
   </sheetData>
@@ -3240,519 +3240,519 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5.193682097245082</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.433168334960937</v>
+        <v>7.23518967628479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>26.1192057135656</v>
+        <v>36.83215774575829</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1664280128479003</v>
+        <v>7.094687461853027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>41.34979148356217</v>
+        <v>53.93039781597172</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1167973709106445</v>
+        <v>3.607141017913818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>31.00414433672578</v>
+        <v>49.12557413366338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1039734649658204</v>
+        <v>7.295233726501465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>40.00426554473221</v>
+        <v>39.30190627302201</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1248134803771972</v>
+        <v>7.202889919281006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>39.99236343858947</v>
+        <v>45.1293183018731</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1195651721954345</v>
+        <v>7.150371074676514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>34.28373941563169</v>
+        <v>50.24883586052905</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1168884468078613</v>
+        <v>7.184645414352417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>39.27245496414002</v>
+        <v>52.35784343289733</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1862742137908935</v>
+        <v>2.046106576919556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>39.00891899515348</v>
+        <v>46.5489037539673</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8947993946075439</v>
+        <v>7.21836519241333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>40.76875905409696</v>
+        <v>45.29334836671736</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.002583665847778</v>
+        <v>7.199136972427368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>37.06870970398892</v>
+        <v>41.17434802195024</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1212903690338134</v>
+        <v>6.865871667861938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>39.60432572332298</v>
+        <v>39.27929134957318</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1418368053436279</v>
+        <v>2.09730339050293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>41.30550655067006</v>
+        <v>42.00717218050831</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.82534782409668</v>
+        <v>7.148438215255737</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>42.05726553726117</v>
+        <v>39.00769508461137</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.354299945831299</v>
+        <v>5.243908405303955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>43.84557132921307</v>
+        <v>42.39175654298347</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1187996101379394</v>
+        <v>7.205899477005005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>43.52180294442265</v>
+        <v>42.03055857440024</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06622783660888665</v>
+        <v>7.215424299240112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>42.58700779383638</v>
+        <v>42.07767219533033</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1285466384887695</v>
+        <v>2.735245227813721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>44.10799138815469</v>
+        <v>39.74083591745074</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.06121913909912102</v>
+        <v>7.196122169494629</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
-        <v>41.78456997012507</v>
+        <v>39.846241899898</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1063329410552978</v>
+        <v>7.199202537536621</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>43.53299364095064</v>
+        <v>41.69566837074876</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1176637840270995</v>
+        <v>7.261407375335693</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>44.01259788785902</v>
+        <v>40.95458499504036</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.09120718955993645</v>
+        <v>7.294822216033936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>42.012950602167</v>
+        <v>42.73081030852262</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.124482078552246</v>
+        <v>7.433573007583618</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>42.94695096923071</v>
+        <v>40.87318736448266</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08949510574340813</v>
+        <v>7.275562047958374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>41.73610211099481</v>
+        <v>42.1049795685387</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1461285781860351</v>
+        <v>7.369712352752686</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>42.07883641213534</v>
+        <v>43.53126172272781</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.739153308868408</v>
+        <v>7.110422611236572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>40.45942075089377</v>
+        <v>41.85600804320578</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1382791233062743</v>
+        <v>2.890791177749634</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
-        <v>39.49611405387826</v>
+        <v>42.98363642535104</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.875689668655395</v>
+        <v>7.178855180740356</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>40.15112330315407</v>
+        <v>44.4773480019337</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1265179347991943</v>
+        <v>7.057661771774292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>38.77046820761502</v>
+        <v>42.94350877398225</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.07951681137084954</v>
+        <v>7.30348014831543</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="n">
-        <v>39.38120794015811</v>
+        <v>42.99909941517569</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1268283557891845</v>
+        <v>7.224908351898193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>40.71632735287291</v>
+        <v>43.22100099625998</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1343883705139159</v>
+        <v>7.378046751022339</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>39.44497947186986</v>
+        <v>41.87032389162554</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1106447410583495</v>
+        <v>7.137820482254028</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>40.28604061515086</v>
+        <v>42.67714946207144</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1525212955474853</v>
+        <v>7.237483501434326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>40.41069446683625</v>
+        <v>41.41916945063782</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07164613723754876</v>
+        <v>1.06270170211792</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>41.41074710072087</v>
+        <v>42.50127015254866</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1444219779968261</v>
+        <v>7.116966009140015</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>40.26299139204055</v>
+        <v>43.3183555653308</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.09885375022888176</v>
+        <v>7.117166042327881</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
-        <v>41.46401464383343</v>
+        <v>44.452042820174</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08819453239440911</v>
+        <v>7.106548309326172</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>42.51751284050108</v>
+        <v>43.28357462649635</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.09307400703430169</v>
+        <v>7.026099920272827</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>43.47361492082327</v>
+        <v>44.290639335972</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6955451202392577</v>
+        <v>7.087254524230957</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>42.3838887721419</v>
+        <v>45.12615900408714</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1239325237274169</v>
+        <v>7.104488134384155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>42.92267992962604</v>
+        <v>44.02787982659491</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1207656097412109</v>
+        <v>7.178598403930664</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>43.18765534118037</v>
+        <v>43.8979812585586</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.720088882446289</v>
+        <v>4.081417322158813</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44" t="n">
-        <v>42.1826095615822</v>
+        <v>45.09870999689757</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1545983982086181</v>
+        <v>7.266292810440063</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="n">
-        <v>42.90187300460114</v>
+        <v>44.0736237459227</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1347326469421386</v>
+        <v>7.388747453689575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="n">
-        <v>43.23803484225829</v>
+        <v>44.16758188691346</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1261715126037597</v>
+        <v>7.105007886886597</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="n">
-        <v>43.53086896558304</v>
+        <v>45.18534406051199</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1006640624999999</v>
+        <v>6.247417449951172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="n">
-        <v>42.60768787098637</v>
+        <v>44.22428411726106</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.391684694290161</v>
+        <v>3.964850902557373</v>
       </c>
     </row>
   </sheetData>
